--- a/data/trans_dic/P12_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,38; 19,6</t>
+          <t>12,26; 18,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,89; 22,0</t>
+          <t>13,6; 21,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 13,97</t>
+          <t>7,24; 13,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,19; 15,85</t>
+          <t>10,04; 15,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 23,53</t>
+          <t>15,16; 23,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 22,06</t>
+          <t>13,18; 22,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 15,48</t>
+          <t>8,32; 15,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,52; 19,44</t>
+          <t>13,64; 19,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,13; 19,92</t>
+          <t>14,4; 19,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,42</t>
+          <t>14,54; 20,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,51</t>
+          <t>8,82; 13,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,46; 16,66</t>
+          <t>12,27; 16,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,06; 15,69</t>
+          <t>8,5; 15,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 19,7</t>
+          <t>12,2; 20,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 13,36</t>
+          <t>6,74; 13,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 15,86</t>
+          <t>9,38; 15,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,78; 25,29</t>
+          <t>16,83; 25,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,67; 30,68</t>
+          <t>21,19; 31,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,24</t>
+          <t>9,72; 17,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,12; 24,44</t>
+          <t>16,68; 24,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,47; 19,05</t>
+          <t>13,85; 19,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,88; 23,31</t>
+          <t>17,25; 23,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,91; 13,89</t>
+          <t>9,28; 13,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,69; 18,49</t>
+          <t>13,8; 18,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,42; 21,99</t>
+          <t>15,3; 21,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,85; 21,15</t>
+          <t>15,07; 21,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 15,07</t>
+          <t>9,29; 14,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 16,38</t>
+          <t>3,37; 16,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,1; 28,67</t>
+          <t>15,81; 28,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,17; 31,69</t>
+          <t>20,61; 32,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,25; 28,1</t>
+          <t>14,52; 28,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,77; 24,99</t>
+          <t>15,77; 24,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,48; 22,47</t>
+          <t>16,15; 22,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,66; 22,95</t>
+          <t>17,46; 23,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 17,01</t>
+          <t>11,08; 16,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 17,79</t>
+          <t>5,16; 17,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 22,25</t>
+          <t>18,05; 22,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 19,2</t>
+          <t>14,6; 18,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 15,21</t>
+          <t>11,32; 15,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 16,03</t>
+          <t>11,92; 15,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 26,55</t>
+          <t>20,29; 26,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,81; 29,51</t>
+          <t>22,74; 29,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,35; 19,39</t>
+          <t>14,48; 19,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,89; 66,65</t>
+          <t>18,69; 66,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,25; 22,97</t>
+          <t>19,28; 22,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,78; 22,42</t>
+          <t>18,62; 22,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 16,45</t>
+          <t>13,04; 16,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 48,78</t>
+          <t>15,96; 49,71</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,96; 23,36</t>
+          <t>15,3; 23,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,61</t>
+          <t>11,28; 17,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,56; 16,09</t>
+          <t>10,73; 16,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 19,42</t>
+          <t>12,64; 19,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,52; 29,03</t>
+          <t>21,7; 28,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,3; 30,93</t>
+          <t>24,33; 31,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,42; 24,83</t>
+          <t>18,39; 24,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,85; 23,32</t>
+          <t>15,13; 23,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,4; 25,94</t>
+          <t>20,34; 25,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,0; 24,87</t>
+          <t>19,99; 24,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,56; 19,61</t>
+          <t>15,56; 19,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,97; 20,83</t>
+          <t>15,26; 20,8</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,11</t>
+          <t>4,9; 11,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,98; 11,54</t>
+          <t>5,15; 11,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,46</t>
+          <t>4,15; 10,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,32; 15,66</t>
+          <t>4,34; 15,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,61; 24,18</t>
+          <t>19,45; 24,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,25; 29,73</t>
+          <t>24,18; 29,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,28; 17,84</t>
+          <t>13,36; 17,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,04; 19,76</t>
+          <t>14,97; 19,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,03; 20,98</t>
+          <t>17,25; 21,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,93; 25,6</t>
+          <t>21,01; 25,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,75; 15,53</t>
+          <t>11,7; 15,63</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,93; 17,29</t>
+          <t>13,15; 17,37</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,71; 18,35</t>
+          <t>15,65; 18,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,49; 17,12</t>
+          <t>14,47; 17,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,62; 12,77</t>
+          <t>10,58; 12,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,72; 14,17</t>
+          <t>10,02; 14,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,81; 23,68</t>
+          <t>20,94; 23,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,31; 27,37</t>
+          <t>24,41; 27,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,3; 17,87</t>
+          <t>15,16; 17,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,28; 37,74</t>
+          <t>18,46; 38,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,75; 20,73</t>
+          <t>18,76; 20,65</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,89; 21,89</t>
+          <t>19,82; 21,94</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,36; 15,04</t>
+          <t>13,38; 15,09</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,28; 27,68</t>
+          <t>15,22; 27,11</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>73389</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>75587</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>44029</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>65331</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>59086</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>55207</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39597</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>73161</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>132475</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>130794</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>83625</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>138492</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>58074; 89917</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>59468; 93251</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>31065; 57575</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>50730; 80568</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>46478; 73269</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>41460; 69961</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28803; 52797</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>61015; 87657</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>112382; 155579</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>109289; 154574</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>68353; 103780</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>116893; 158126</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>43749</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>64314</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>36290</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>55944</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>77208</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>86860</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>48572</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>77725</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>120957</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>151174</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>84861</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>133669</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31172; 56809</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>51091; 84583</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25421; 49739</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42397; 71514</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>62595; 94211</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>71398; 104523</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>36072; 64064</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>63806; 92328</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>102357; 141350</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>130407; 178133</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>69472; 103962</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>115167; 155482</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>100180</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>112547</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>61177</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>65081</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>36123</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>66717</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>33929</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33339</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>136303</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>179263</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>95106</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>98420</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>82996; 118979</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>94505; 133871</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>48391; 77213</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22508; 109644</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26533; 47884</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53407; 83355</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24116; 46713</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26234; 41230</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>114702; 156599</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>154782; 205211</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>76104; 112713</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43064; 146813</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>247204</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>193425</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>151921</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>143384</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>166325</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>199516</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>137871</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>356566</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>413529</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>392941</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>289792</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>499949</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>223561; 278158</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>169046; 217939</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>130030; 177368</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>123216; 165149</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>144919; 190396</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>173885; 224360</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>119497; 160310</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>182810; 650027</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>376412; 448742</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>358026; 432769</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>257453; 321855</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>321073; 1000266</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>66379</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>73498</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>81367</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>74503</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>144531</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>209848</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>158597</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>168554</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>210910</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>283347</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>239964</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>243057</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>53649; 81856</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>57601; 89387</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>66611; 99739</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>60047; 93961</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>123413; 164681</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>185064; 236601</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>135766; 181511</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>127236; 195995</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>187018; 237258</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>254072; 317530</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>211411; 270589</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>200792; 273779</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>22653</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>20846</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>19136</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>19849</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>271697</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>298294</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>166414</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>130912</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>294350</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>319140</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>185550</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>150761</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14626; 33115</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>13737; 30668</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>11911; 28786</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10443; 37554</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>242841; 302176</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>267496; 328002</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>144075; 191139</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>114013; 149428</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>266864; 325947</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>288494; 352858</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>159830; 213528</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>131733; 173983</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>553554</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>540216</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>393919</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>424091</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>754969</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>916442</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>584979</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>840257</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1308522</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1456658</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>978898</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1264349</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>511718; 595865</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>494723; 582830</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>357852; 435215</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>338161; 472676</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>707484; 806017</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>864606; 969948</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>534327; 627865</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>660423; 1374745</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1246911; 1373156</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1379933; 1527048</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>924642; 1042566</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1058198; 1884525</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P12_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
